--- a/tradept/Excel/Localization/english/D道具列表_Items_Special_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_Special_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87CD9B9-846E-47FA-8D6B-819A9698FA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FD2FA-E879-4664-8316-05D5F630BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5905,11 +5905,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
       <selection sqref="A1:G649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="7" max="7" width="214" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1">
       <c r="A1" s="2" t="s">
